--- a/data/pca/factorExposure/factorExposure_2009-04-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01739392324369808</v>
+        <v>0.01675629992992769</v>
       </c>
       <c r="C2">
-        <v>-0.00210586561375469</v>
+        <v>-0.001363823374345034</v>
       </c>
       <c r="D2">
-        <v>0.00757668144728074</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008594838984460854</v>
+      </c>
+      <c r="E2">
+        <v>-0.0005156025123575665</v>
+      </c>
+      <c r="F2">
+        <v>-0.01954499549576124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08718441578168501</v>
+        <v>0.09037446220228619</v>
       </c>
       <c r="C4">
-        <v>-0.02065590952076709</v>
+        <v>-0.01598810371546653</v>
       </c>
       <c r="D4">
-        <v>0.0806263315086404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08387917173002035</v>
+      </c>
+      <c r="E4">
+        <v>-0.0324398029861631</v>
+      </c>
+      <c r="F4">
+        <v>0.03703947960784317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000504461081997499</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8.513795679415151e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.102332887918432e-05</v>
+      </c>
+      <c r="E5">
+        <v>1.98665732375698e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.000629785943358139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1574145938135133</v>
+        <v>0.1650833375674338</v>
       </c>
       <c r="C6">
-        <v>-0.03492192185186044</v>
+        <v>-0.03359023458602326</v>
       </c>
       <c r="D6">
-        <v>-0.03054380682289423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02057148165241273</v>
+      </c>
+      <c r="E6">
+        <v>-0.01600343979152619</v>
+      </c>
+      <c r="F6">
+        <v>0.05577600399491385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05739041700354935</v>
+        <v>0.06134149184345414</v>
       </c>
       <c r="C7">
-        <v>-0.002271788395553241</v>
+        <v>0.0009132069642612105</v>
       </c>
       <c r="D7">
-        <v>0.04807796964257972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05253983400590444</v>
+      </c>
+      <c r="E7">
+        <v>-0.01946865097322038</v>
+      </c>
+      <c r="F7">
+        <v>0.04493422394710782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05837269192436606</v>
+        <v>0.05491585266111172</v>
       </c>
       <c r="C8">
-        <v>0.009517954909924319</v>
+        <v>0.01181728248280749</v>
       </c>
       <c r="D8">
-        <v>0.02591559221515818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03002252052223544</v>
+      </c>
+      <c r="E8">
+        <v>-0.01318291681806198</v>
+      </c>
+      <c r="F8">
+        <v>-0.03707218139839907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06871057921628319</v>
+        <v>0.07115064337162472</v>
       </c>
       <c r="C9">
-        <v>-0.01670983113058679</v>
+        <v>-0.01178346734310318</v>
       </c>
       <c r="D9">
-        <v>0.08397177179282918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0877099160895497</v>
+      </c>
+      <c r="E9">
+        <v>-0.03077121434076931</v>
+      </c>
+      <c r="F9">
+        <v>0.05635135991019762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0883509321736663</v>
+        <v>0.08749643710704404</v>
       </c>
       <c r="C10">
-        <v>-0.02012624433552876</v>
+        <v>-0.02364680341240991</v>
       </c>
       <c r="D10">
-        <v>-0.1677129811985605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1582939692183412</v>
+      </c>
+      <c r="E10">
+        <v>0.03680751216718433</v>
+      </c>
+      <c r="F10">
+        <v>-0.0770191308762215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08895289969740576</v>
+        <v>0.08591861936805463</v>
       </c>
       <c r="C11">
-        <v>-0.01805473978430272</v>
+        <v>-0.01260895373431893</v>
       </c>
       <c r="D11">
-        <v>0.1152202055768581</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1201640486500743</v>
+      </c>
+      <c r="E11">
+        <v>-0.05597315226796035</v>
+      </c>
+      <c r="F11">
+        <v>0.004749703238868764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09521634391865599</v>
+        <v>0.08995697803339009</v>
       </c>
       <c r="C12">
-        <v>-0.01665140428762369</v>
+        <v>-0.01030246567278392</v>
       </c>
       <c r="D12">
-        <v>0.1231436894033824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1359667291002246</v>
+      </c>
+      <c r="E12">
+        <v>-0.05997970041049899</v>
+      </c>
+      <c r="F12">
+        <v>0.0102467652979911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04506718421646806</v>
+        <v>0.0453997464868512</v>
       </c>
       <c r="C13">
-        <v>-0.007596502881254883</v>
+        <v>-0.004246989350238212</v>
       </c>
       <c r="D13">
-        <v>0.04913920011146137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05616325512483957</v>
+      </c>
+      <c r="E13">
+        <v>0.001070801873339758</v>
+      </c>
+      <c r="F13">
+        <v>0.006301552539159578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01834107394384941</v>
+        <v>0.02139247279185521</v>
       </c>
       <c r="C14">
-        <v>-0.01468439721975296</v>
+        <v>-0.01367730616629889</v>
       </c>
       <c r="D14">
-        <v>0.03227546447200101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03390965125643352</v>
+      </c>
+      <c r="E14">
+        <v>-0.02271932532184781</v>
+      </c>
+      <c r="F14">
+        <v>0.0123487670641353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0344162394513863</v>
+        <v>0.03501360194313841</v>
       </c>
       <c r="C15">
-        <v>-0.008608654927248783</v>
+        <v>-0.006613720686676996</v>
       </c>
       <c r="D15">
-        <v>0.04826700065181311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04830788062693216</v>
+      </c>
+      <c r="E15">
+        <v>-0.01196844940804962</v>
+      </c>
+      <c r="F15">
+        <v>0.02764173344042617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07131126948449167</v>
+        <v>0.06974314481339415</v>
       </c>
       <c r="C16">
-        <v>-0.007450000534240038</v>
+        <v>-0.001851536120261257</v>
       </c>
       <c r="D16">
-        <v>0.1189234883480929</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1305950305737952</v>
+      </c>
+      <c r="E16">
+        <v>-0.070426732116043</v>
+      </c>
+      <c r="F16">
+        <v>0.007154050006763332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002124031191614318</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0007313576912866745</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001660300158940526</v>
+      </c>
+      <c r="E17">
+        <v>-0.004745091692746079</v>
+      </c>
+      <c r="F17">
+        <v>-0.003875445880980549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02831058712231387</v>
+        <v>0.04558604118360331</v>
       </c>
       <c r="C18">
-        <v>0.0004946445525889112</v>
+        <v>0.0003729398041334388</v>
       </c>
       <c r="D18">
-        <v>0.02079556419448453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01867759306274439</v>
+      </c>
+      <c r="E18">
+        <v>0.005531367443832468</v>
+      </c>
+      <c r="F18">
+        <v>-0.01356432126105046</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06323268289235326</v>
+        <v>0.062110610310348</v>
       </c>
       <c r="C20">
-        <v>-0.006177503146813559</v>
+        <v>-0.002478683634780536</v>
       </c>
       <c r="D20">
-        <v>0.07500233268087779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07952725061972195</v>
+      </c>
+      <c r="E20">
+        <v>-0.06443833746939433</v>
+      </c>
+      <c r="F20">
+        <v>0.02885476777194015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04044817274397114</v>
+        <v>0.04250812883939703</v>
       </c>
       <c r="C21">
-        <v>-0.01021931365113589</v>
+        <v>-0.007878795538680108</v>
       </c>
       <c r="D21">
-        <v>0.03853779722708861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03757539046633404</v>
+      </c>
+      <c r="E21">
+        <v>-0.000223065641111364</v>
+      </c>
+      <c r="F21">
+        <v>-0.02540268353676286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04410480995772934</v>
+        <v>0.04463813175701935</v>
       </c>
       <c r="C22">
-        <v>-0.003549867887321562</v>
+        <v>-0.002365968632801057</v>
       </c>
       <c r="D22">
-        <v>0.003394736742650897</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.009746336777986035</v>
+      </c>
+      <c r="E22">
+        <v>-0.02872224592103262</v>
+      </c>
+      <c r="F22">
+        <v>-0.08903607800585982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04411331044921228</v>
+        <v>0.04464540392997561</v>
       </c>
       <c r="C23">
-        <v>-0.003552055011450646</v>
+        <v>-0.002368098262864007</v>
       </c>
       <c r="D23">
-        <v>0.003385884185824968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.009739573892884518</v>
+      </c>
+      <c r="E23">
+        <v>-0.02872998481248181</v>
+      </c>
+      <c r="F23">
+        <v>-0.08907661536161672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07908691285846577</v>
+        <v>0.07615680177171998</v>
       </c>
       <c r="C24">
-        <v>-0.008353812611285205</v>
+        <v>-0.002929997827263576</v>
       </c>
       <c r="D24">
-        <v>0.1201822021795771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1241240369004519</v>
+      </c>
+      <c r="E24">
+        <v>-0.0548134503797795</v>
+      </c>
+      <c r="F24">
+        <v>0.01878948169167089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08353818061467047</v>
+        <v>0.08054671358174353</v>
       </c>
       <c r="C25">
-        <v>-0.01056642950721067</v>
+        <v>-0.00564665968639231</v>
       </c>
       <c r="D25">
-        <v>0.1073670174398776</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1117944941673053</v>
+      </c>
+      <c r="E25">
+        <v>-0.04097318950649049</v>
+      </c>
+      <c r="F25">
+        <v>0.01218348187167104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05641051683635004</v>
+        <v>0.06116983342416497</v>
       </c>
       <c r="C26">
-        <v>-0.01896929979484067</v>
+        <v>-0.01578671485744528</v>
       </c>
       <c r="D26">
-        <v>0.04191721382116552</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04915341849189315</v>
+      </c>
+      <c r="E26">
+        <v>-0.02875628860048935</v>
+      </c>
+      <c r="F26">
+        <v>-0.01890115444594884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.141687105050263</v>
+        <v>0.1483431834956207</v>
       </c>
       <c r="C28">
-        <v>-0.02203489385712266</v>
+        <v>-0.0282432473279576</v>
       </c>
       <c r="D28">
-        <v>-0.2594860220993161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2550925580795681</v>
+      </c>
+      <c r="E28">
+        <v>0.06152970326397486</v>
+      </c>
+      <c r="F28">
+        <v>0.006064573969629719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02550839135474885</v>
+        <v>0.0275169163601358</v>
       </c>
       <c r="C29">
-        <v>-0.009836962183120922</v>
+        <v>-0.009131228713437401</v>
       </c>
       <c r="D29">
-        <v>0.03109793791276009</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03147751165279236</v>
+      </c>
+      <c r="E29">
+        <v>-0.01705592320624439</v>
+      </c>
+      <c r="F29">
+        <v>-0.0254825610757817</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05487633825404051</v>
+        <v>0.05298450607850222</v>
       </c>
       <c r="C30">
-        <v>-0.007067203565671355</v>
+        <v>-0.002631461366974027</v>
       </c>
       <c r="D30">
-        <v>0.08241396613690903</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08838115446557075</v>
+      </c>
+      <c r="E30">
+        <v>-0.02161431707921515</v>
+      </c>
+      <c r="F30">
+        <v>0.0999742529371456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05120215358016362</v>
+        <v>0.05164829375958002</v>
       </c>
       <c r="C31">
-        <v>-0.01884482117141292</v>
+        <v>-0.01714459200803527</v>
       </c>
       <c r="D31">
-        <v>0.02443420102424141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02664101749918218</v>
+      </c>
+      <c r="E31">
+        <v>-0.02928249439097036</v>
+      </c>
+      <c r="F31">
+        <v>-0.01174284011882284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04558330378901289</v>
+        <v>0.05041508223322842</v>
       </c>
       <c r="C32">
-        <v>-0.002322463131841178</v>
+        <v>0.0009485980372375273</v>
       </c>
       <c r="D32">
-        <v>0.03227801773029226</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03565488180513278</v>
+      </c>
+      <c r="E32">
+        <v>-0.03176604616981682</v>
+      </c>
+      <c r="F32">
+        <v>-0.003909762387065822</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08967650520256187</v>
+        <v>0.09000384207362477</v>
       </c>
       <c r="C33">
-        <v>-0.01476247358878934</v>
+        <v>-0.008820232299571735</v>
       </c>
       <c r="D33">
-        <v>0.0931772401236655</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1060797012921176</v>
+      </c>
+      <c r="E33">
+        <v>-0.05699290909659701</v>
+      </c>
+      <c r="F33">
+        <v>0.02356317036474052</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06674457002907405</v>
+        <v>0.06606673820589566</v>
       </c>
       <c r="C34">
-        <v>-0.01637556224124809</v>
+        <v>-0.01135076825118344</v>
       </c>
       <c r="D34">
-        <v>0.1016768946816566</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1122139438160007</v>
+      </c>
+      <c r="E34">
+        <v>-0.04359357993499088</v>
+      </c>
+      <c r="F34">
+        <v>0.02995365583020592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.0269950051506189</v>
+        <v>0.02826955928873556</v>
       </c>
       <c r="C35">
-        <v>-0.005017012749433842</v>
+        <v>-0.0044559533374514</v>
       </c>
       <c r="D35">
-        <v>0.00935394740923207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01185669756048317</v>
+      </c>
+      <c r="E35">
+        <v>-0.01764274915659239</v>
+      </c>
+      <c r="F35">
+        <v>-0.007278071782109334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02370798626041824</v>
+        <v>0.02824008357080314</v>
       </c>
       <c r="C36">
-        <v>-0.008573109096965587</v>
+        <v>-0.007503033302131204</v>
       </c>
       <c r="D36">
-        <v>0.03919636514420741</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04126088318795351</v>
+      </c>
+      <c r="E36">
+        <v>-0.01957189565436401</v>
+      </c>
+      <c r="F36">
+        <v>0.01453539467705446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002678274648076735</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007118626225301522</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003046146924390866</v>
+      </c>
+      <c r="E37">
+        <v>-0.0008122889141265993</v>
+      </c>
+      <c r="F37">
+        <v>-0.001036276892454806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1058334340287677</v>
+        <v>0.0961194465346345</v>
       </c>
       <c r="C39">
-        <v>-0.02355647221549768</v>
+        <v>-0.01687044196678858</v>
       </c>
       <c r="D39">
-        <v>0.1542503710397962</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1536075675995626</v>
+      </c>
+      <c r="E39">
+        <v>-0.0706587130848476</v>
+      </c>
+      <c r="F39">
+        <v>-0.00612490177070074</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0426307727523674</v>
+        <v>0.04776996395329494</v>
       </c>
       <c r="C40">
-        <v>-0.0116339734836251</v>
+        <v>-0.01014022646018215</v>
       </c>
       <c r="D40">
-        <v>0.02754273017934989</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03405770944414027</v>
+      </c>
+      <c r="E40">
+        <v>-0.001216631993144648</v>
+      </c>
+      <c r="F40">
+        <v>-0.03108679991963169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02554736408341059</v>
+        <v>0.02797956574031622</v>
       </c>
       <c r="C41">
-        <v>-0.008269869461127134</v>
+        <v>-0.007643665498263861</v>
       </c>
       <c r="D41">
-        <v>0.009439178255915556</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01101225963958795</v>
+      </c>
+      <c r="E41">
+        <v>-0.01161133686257652</v>
+      </c>
+      <c r="F41">
+        <v>-0.01386612466037468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04059876287766762</v>
+        <v>0.03938878659512522</v>
       </c>
       <c r="C43">
-        <v>-0.009160170836009342</v>
+        <v>-0.008172062839455674</v>
       </c>
       <c r="D43">
-        <v>0.02061247668022519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02143839516887903</v>
+      </c>
+      <c r="E43">
+        <v>-0.02693845122540499</v>
+      </c>
+      <c r="F43">
+        <v>-0.02809147692517744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06578270578261719</v>
+        <v>0.0729431009030258</v>
       </c>
       <c r="C44">
-        <v>-0.0237670185332006</v>
+        <v>-0.0194444697319445</v>
       </c>
       <c r="D44">
-        <v>0.08490531150510934</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09126526259226736</v>
+      </c>
+      <c r="E44">
+        <v>-0.07717538679457621</v>
+      </c>
+      <c r="F44">
+        <v>0.1890949295121913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.000136766791901231</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-1.120933896770629e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-4.924995011765137e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0001699384388190424</v>
+      </c>
+      <c r="F45">
+        <v>0.0001337732079063513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02202248780505363</v>
+        <v>0.02474550206386528</v>
       </c>
       <c r="C46">
-        <v>-0.004875594451764195</v>
+        <v>-0.004090607535021469</v>
       </c>
       <c r="D46">
-        <v>0.0134754131545358</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01561240045982979</v>
+      </c>
+      <c r="E46">
+        <v>-0.03351648436514313</v>
+      </c>
+      <c r="F46">
+        <v>-0.02938475166930621</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05421795810745707</v>
+        <v>0.05307130788324244</v>
       </c>
       <c r="C47">
-        <v>-0.007186966131890089</v>
+        <v>-0.005619938950759441</v>
       </c>
       <c r="D47">
-        <v>0.009083418912885621</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01278606423973867</v>
+      </c>
+      <c r="E47">
+        <v>-0.02407398547115766</v>
+      </c>
+      <c r="F47">
+        <v>-0.04687908469789871</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04846873316158553</v>
+        <v>0.05182341692389716</v>
       </c>
       <c r="C48">
-        <v>-0.006017458945542937</v>
+        <v>-0.003340815981931146</v>
       </c>
       <c r="D48">
-        <v>0.05091327743646213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05350511706797629</v>
+      </c>
+      <c r="E48">
+        <v>0.001241531880474983</v>
+      </c>
+      <c r="F48">
+        <v>0.01088754148629037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1969461802651239</v>
+        <v>0.1992587132188452</v>
       </c>
       <c r="C49">
-        <v>-0.02805377748515325</v>
+        <v>-0.02447255555252968</v>
       </c>
       <c r="D49">
-        <v>-0.009938575373841083</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.003767670969866171</v>
+      </c>
+      <c r="E49">
+        <v>-0.02452852685675932</v>
+      </c>
+      <c r="F49">
+        <v>0.06555327725795992</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04973907872212552</v>
+        <v>0.05229140823468208</v>
       </c>
       <c r="C50">
-        <v>-0.0145730503204527</v>
+        <v>-0.01302259125680465</v>
       </c>
       <c r="D50">
-        <v>0.02456225132325297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02666504050562079</v>
+      </c>
+      <c r="E50">
+        <v>-0.03077844713177112</v>
+      </c>
+      <c r="F50">
+        <v>0.005762416307196904</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1523917740537939</v>
+        <v>0.1459533272296529</v>
       </c>
       <c r="C52">
-        <v>-0.02459497839367371</v>
+        <v>-0.02119401328565461</v>
       </c>
       <c r="D52">
-        <v>0.04233141758207432</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04415339669895483</v>
+      </c>
+      <c r="E52">
+        <v>-0.03166467518770288</v>
+      </c>
+      <c r="F52">
+        <v>0.04357279262413116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1752103645611819</v>
+        <v>0.1681679574386039</v>
       </c>
       <c r="C53">
-        <v>-0.02727505961264614</v>
+        <v>-0.02525025443624853</v>
       </c>
       <c r="D53">
-        <v>0.004757622234607197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.008182953039094431</v>
+      </c>
+      <c r="E53">
+        <v>-0.0405475227249418</v>
+      </c>
+      <c r="F53">
+        <v>0.09607807508603691</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01491625923496737</v>
+        <v>0.01847783235788794</v>
       </c>
       <c r="C54">
-        <v>-0.01225145029478439</v>
+        <v>-0.01133557628947968</v>
       </c>
       <c r="D54">
-        <v>0.02895772989875643</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02820525137246743</v>
+      </c>
+      <c r="E54">
+        <v>-0.01987984637343729</v>
+      </c>
+      <c r="F54">
+        <v>-0.005928626765760356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1187953774077262</v>
+        <v>0.1168627831781262</v>
       </c>
       <c r="C55">
-        <v>-0.02349050198942882</v>
+        <v>-0.02189920891218776</v>
       </c>
       <c r="D55">
-        <v>0.004575875420767746</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01143487260049444</v>
+      </c>
+      <c r="E55">
+        <v>-0.0395719867423358</v>
+      </c>
+      <c r="F55">
+        <v>0.03363016750477414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1809390340171035</v>
+        <v>0.1751565376871061</v>
       </c>
       <c r="C56">
-        <v>-0.02529777587465874</v>
+        <v>-0.02358400781845918</v>
       </c>
       <c r="D56">
-        <v>-0.004345211659953495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0004225484005105095</v>
+      </c>
+      <c r="E56">
+        <v>-0.0404695407738196</v>
+      </c>
+      <c r="F56">
+        <v>0.05482031595014091</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0458674168488876</v>
+        <v>0.04457824622344223</v>
       </c>
       <c r="C58">
-        <v>-0.004816081117812744</v>
+        <v>-0.0001504197877430886</v>
       </c>
       <c r="D58">
-        <v>0.06840963380021717</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07765220223743576</v>
+      </c>
+      <c r="E58">
+        <v>-0.03607255262323288</v>
+      </c>
+      <c r="F58">
+        <v>-0.05126891580037124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.165979605275685</v>
+        <v>0.171401009839433</v>
       </c>
       <c r="C59">
-        <v>-0.02350917087366482</v>
+        <v>-0.0284477829799826</v>
       </c>
       <c r="D59">
-        <v>-0.2193316830760108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2151918300910067</v>
+      </c>
+      <c r="E59">
+        <v>0.05378157881890642</v>
+      </c>
+      <c r="F59">
+        <v>-0.06333803181132891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2339514276827634</v>
+        <v>0.2265970356273022</v>
       </c>
       <c r="C60">
-        <v>-0.009109412137674605</v>
+        <v>-0.003981062668895075</v>
       </c>
       <c r="D60">
-        <v>0.03661280940713481</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03775957138389288</v>
+      </c>
+      <c r="E60">
+        <v>0.00551383283376201</v>
+      </c>
+      <c r="F60">
+        <v>0.01964254074603737</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07690670426280537</v>
+        <v>0.0724194664598624</v>
       </c>
       <c r="C61">
-        <v>-0.01708219318978551</v>
+        <v>-0.0113978146292322</v>
       </c>
       <c r="D61">
-        <v>0.1138363278808038</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1181399285825288</v>
+      </c>
+      <c r="E61">
+        <v>-0.04583589964286924</v>
+      </c>
+      <c r="F61">
+        <v>-0.01298503758504648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1722270037323433</v>
+        <v>0.1679932460517793</v>
       </c>
       <c r="C62">
-        <v>-0.02829995968648392</v>
+        <v>-0.02575389666692575</v>
       </c>
       <c r="D62">
-        <v>0.002750385282649939</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.009530402585867633</v>
+      </c>
+      <c r="E62">
+        <v>-0.04295607174635575</v>
+      </c>
+      <c r="F62">
+        <v>0.03585260819827327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04280732045008497</v>
+        <v>0.04735712810203448</v>
       </c>
       <c r="C63">
-        <v>-0.006165931089383822</v>
+        <v>-0.003495613980236445</v>
       </c>
       <c r="D63">
-        <v>0.05582378215752049</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0641370007179263</v>
+      </c>
+      <c r="E63">
+        <v>-0.02533674079266964</v>
+      </c>
+      <c r="F63">
+        <v>-0.009654301570842534</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1142739206905872</v>
+        <v>0.1114061421022173</v>
       </c>
       <c r="C64">
-        <v>-0.0192476063162648</v>
+        <v>-0.01541957558082731</v>
       </c>
       <c r="D64">
-        <v>0.03799612365140078</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04449550688146434</v>
+      </c>
+      <c r="E64">
+        <v>-0.03171583162792945</v>
+      </c>
+      <c r="F64">
+        <v>0.02104168807237478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1486631316195123</v>
+        <v>0.1555427805553316</v>
       </c>
       <c r="C65">
-        <v>-0.0408309103857626</v>
+        <v>-0.04002833020620239</v>
       </c>
       <c r="D65">
-        <v>-0.05168519065489911</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04020044730355178</v>
+      </c>
+      <c r="E65">
+        <v>-0.01067626465192004</v>
+      </c>
+      <c r="F65">
+        <v>0.05829608126383115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1274902368087792</v>
+        <v>0.1155036282423271</v>
       </c>
       <c r="C66">
-        <v>-0.02230551026113189</v>
+        <v>-0.01503208264382882</v>
       </c>
       <c r="D66">
-        <v>0.1383119015452317</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1431192680222315</v>
+      </c>
+      <c r="E66">
+        <v>-0.07353028946551429</v>
+      </c>
+      <c r="F66">
+        <v>-0.002286763212569137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06200705347247141</v>
+        <v>0.05509980309466862</v>
       </c>
       <c r="C67">
-        <v>-0.007161518242430121</v>
+        <v>-0.00431140870649402</v>
       </c>
       <c r="D67">
-        <v>0.05654740051952372</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05891262001979704</v>
+      </c>
+      <c r="E67">
+        <v>-0.02465425226465026</v>
+      </c>
+      <c r="F67">
+        <v>-0.0713974318940354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1134295681569499</v>
+        <v>0.1217006376254768</v>
       </c>
       <c r="C68">
-        <v>-0.03112389506664725</v>
+        <v>-0.0382995667396548</v>
       </c>
       <c r="D68">
-        <v>-0.2608285780327574</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2573465048750674</v>
+      </c>
+      <c r="E68">
+        <v>0.085928832036038</v>
+      </c>
+      <c r="F68">
+        <v>0.0170206076131489</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04032256478720435</v>
+        <v>0.03959425885177723</v>
       </c>
       <c r="C69">
-        <v>-0.003477815943661775</v>
+        <v>-0.002395949943061024</v>
       </c>
       <c r="D69">
-        <v>0.01020815136111977</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01109026631929803</v>
+      </c>
+      <c r="E69">
+        <v>-0.02975407569481903</v>
+      </c>
+      <c r="F69">
+        <v>-0.01883095827642074</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.068906181466995</v>
+        <v>0.06975345197021111</v>
       </c>
       <c r="C70">
-        <v>0.02260037803869381</v>
+        <v>0.02489178336230103</v>
       </c>
       <c r="D70">
-        <v>0.02991755267199259</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03152855874176048</v>
+      </c>
+      <c r="E70">
+        <v>0.03913969104706667</v>
+      </c>
+      <c r="F70">
+        <v>-0.332585869958184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1327273102058317</v>
+        <v>0.1419801367626385</v>
       </c>
       <c r="C71">
-        <v>-0.0362807802077976</v>
+        <v>-0.04346966384807706</v>
       </c>
       <c r="D71">
-        <v>-0.2750298762297005</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2671456666124413</v>
+      </c>
+      <c r="E71">
+        <v>0.09567885398197673</v>
+      </c>
+      <c r="F71">
+        <v>0.02228582011879682</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1379855738000997</v>
+        <v>0.1438648368256315</v>
       </c>
       <c r="C72">
-        <v>-0.03188279200697679</v>
+        <v>-0.03128013025030402</v>
       </c>
       <c r="D72">
-        <v>0.00128260570667057</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0005821096127320727</v>
+      </c>
+      <c r="E72">
+        <v>-0.04320635266079049</v>
+      </c>
+      <c r="F72">
+        <v>0.03662391688093322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1984385714906284</v>
+        <v>0.2019170887663392</v>
       </c>
       <c r="C73">
-        <v>-0.02177785422454803</v>
+        <v>-0.01679905434205576</v>
       </c>
       <c r="D73">
-        <v>0.01058408840950387</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01763616628474199</v>
+      </c>
+      <c r="E73">
+        <v>-0.06733730182847528</v>
+      </c>
+      <c r="F73">
+        <v>0.0317907847912396</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08871213344112006</v>
+        <v>0.08873815320290929</v>
       </c>
       <c r="C74">
-        <v>-0.01625197347975219</v>
+        <v>-0.01467467190369748</v>
       </c>
       <c r="D74">
-        <v>0.01176177533372391</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01730348504200671</v>
+      </c>
+      <c r="E74">
+        <v>-0.04972735626737534</v>
+      </c>
+      <c r="F74">
+        <v>0.05238279014864255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1309723214779994</v>
+        <v>0.1233468110259567</v>
       </c>
       <c r="C75">
-        <v>-0.03455394985136151</v>
+        <v>-0.03155701494998285</v>
       </c>
       <c r="D75">
-        <v>0.02680426647670211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03223423108413358</v>
+      </c>
+      <c r="E75">
+        <v>-0.06188674946467549</v>
+      </c>
+      <c r="F75">
+        <v>0.01832288880562483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08081035457939417</v>
+        <v>0.09327557417104328</v>
       </c>
       <c r="C77">
-        <v>-0.01570036993901286</v>
+        <v>-0.01092673118457911</v>
       </c>
       <c r="D77">
-        <v>0.1200943897752102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1210646228451026</v>
+      </c>
+      <c r="E77">
+        <v>-0.04795887798830322</v>
+      </c>
+      <c r="F77">
+        <v>0.04281059756012272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09882322579518239</v>
+        <v>0.09978145679082548</v>
       </c>
       <c r="C78">
-        <v>-0.04546139405754625</v>
+        <v>-0.04117620398253451</v>
       </c>
       <c r="D78">
-        <v>0.1105888400786464</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1099148453087278</v>
+      </c>
+      <c r="E78">
+        <v>-0.07719297804685289</v>
+      </c>
+      <c r="F78">
+        <v>0.04388026332426883</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1690097268360919</v>
+        <v>0.1644368777050252</v>
       </c>
       <c r="C79">
-        <v>-0.03174560970067507</v>
+        <v>-0.02894934234428469</v>
       </c>
       <c r="D79">
-        <v>0.01143663126764955</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0173488308489257</v>
+      </c>
+      <c r="E79">
+        <v>-0.05105697691559576</v>
+      </c>
+      <c r="F79">
+        <v>0.01267803913606642</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08106897409706484</v>
+        <v>0.07956754097886343</v>
       </c>
       <c r="C80">
-        <v>-0.004444518290956032</v>
+        <v>-0.00151326136949775</v>
       </c>
       <c r="D80">
-        <v>0.05104462021171454</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05109892995652912</v>
+      </c>
+      <c r="E80">
+        <v>-0.03581157990473007</v>
+      </c>
+      <c r="F80">
+        <v>-0.05970165001942439</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.118411184077399</v>
+        <v>0.1128180654593978</v>
       </c>
       <c r="C81">
-        <v>-0.03634226054334192</v>
+        <v>-0.03469806643030162</v>
       </c>
       <c r="D81">
-        <v>0.007097579832555982</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01203511988582143</v>
+      </c>
+      <c r="E81">
+        <v>-0.05619749616392086</v>
+      </c>
+      <c r="F81">
+        <v>0.009325374836005216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1640701253952201</v>
+        <v>0.1619473114960351</v>
       </c>
       <c r="C82">
-        <v>-0.03133134279215121</v>
+        <v>-0.02984034419428938</v>
       </c>
       <c r="D82">
-        <v>0.006392390444814443</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005345967072141956</v>
+      </c>
+      <c r="E82">
+        <v>-0.03935810338608573</v>
+      </c>
+      <c r="F82">
+        <v>0.09668448861516092</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05679536058562588</v>
+        <v>0.05229844765052478</v>
       </c>
       <c r="C83">
-        <v>-0.005611047138437709</v>
+        <v>-0.003359312465656163</v>
       </c>
       <c r="D83">
-        <v>0.03940135153378332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04020742170647781</v>
+      </c>
+      <c r="E83">
+        <v>0.009170459082692694</v>
+      </c>
+      <c r="F83">
+        <v>-0.04014326022892081</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05939570937327467</v>
+        <v>0.05499572443695842</v>
       </c>
       <c r="C84">
-        <v>-0.0144726369513964</v>
+        <v>-0.0113115442789118</v>
       </c>
       <c r="D84">
-        <v>0.07625660128348213</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07722340478896395</v>
+      </c>
+      <c r="E84">
+        <v>-0.0181554732325365</v>
+      </c>
+      <c r="F84">
+        <v>0.002293959415712587</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1401627697945664</v>
+        <v>0.13492565146723</v>
       </c>
       <c r="C85">
-        <v>-0.03494216381169533</v>
+        <v>-0.03283784720032255</v>
       </c>
       <c r="D85">
-        <v>0.006817659330392263</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01138119151851268</v>
+      </c>
+      <c r="E85">
+        <v>-0.0464781777346128</v>
+      </c>
+      <c r="F85">
+        <v>0.0583856871018811</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08094620977107721</v>
+        <v>0.07802053032415446</v>
       </c>
       <c r="C86">
-        <v>0.005198424787817595</v>
+        <v>0.008698599221795611</v>
       </c>
       <c r="D86">
-        <v>0.02372693850202114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0489908955453178</v>
+      </c>
+      <c r="E86">
+        <v>-0.08879422394113147</v>
+      </c>
+      <c r="F86">
+        <v>-0.8270304741728384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09312088233351572</v>
+        <v>0.09066549548447528</v>
       </c>
       <c r="C87">
-        <v>-0.0300493638269837</v>
+        <v>-0.0215963557328386</v>
       </c>
       <c r="D87">
-        <v>0.07397319186712836</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09114887579918297</v>
+      </c>
+      <c r="E87">
+        <v>0.05756216684906335</v>
+      </c>
+      <c r="F87">
+        <v>0.07741559502359352</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06213584553867973</v>
+        <v>0.06110094959514588</v>
       </c>
       <c r="C88">
-        <v>-0.00696834028248514</v>
+        <v>-0.003846081800884955</v>
       </c>
       <c r="D88">
-        <v>0.0510163770883752</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05090128874032689</v>
+      </c>
+      <c r="E88">
+        <v>-0.03109076293413591</v>
+      </c>
+      <c r="F88">
+        <v>0.0005890643829640677</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1235386951463285</v>
+        <v>0.1303018931817563</v>
       </c>
       <c r="C89">
-        <v>-0.01175680560299244</v>
+        <v>-0.01832380073491811</v>
       </c>
       <c r="D89">
-        <v>-0.2348698478352286</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2389791218873584</v>
+      </c>
+      <c r="E89">
+        <v>0.0874457265036974</v>
+      </c>
+      <c r="F89">
+        <v>0.007899854913304527</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1437474864003933</v>
+        <v>0.1569959005100542</v>
       </c>
       <c r="C90">
-        <v>-0.03249951623630792</v>
+        <v>-0.0403873122011125</v>
       </c>
       <c r="D90">
-        <v>-0.2620806788268098</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2651890620952004</v>
+      </c>
+      <c r="E90">
+        <v>0.1163791590179298</v>
+      </c>
+      <c r="F90">
+        <v>0.009459926680766298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1253275325842879</v>
+        <v>0.1214124079380493</v>
       </c>
       <c r="C91">
-        <v>-0.02562923213347866</v>
+        <v>-0.02446193586571701</v>
       </c>
       <c r="D91">
-        <v>-0.01893053033077641</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0136428935603442</v>
+      </c>
+      <c r="E91">
+        <v>-0.05738257370032338</v>
+      </c>
+      <c r="F91">
+        <v>-0.01625558825410728</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.144623609191409</v>
+        <v>0.1501845637874443</v>
       </c>
       <c r="C92">
-        <v>-0.02366397543016932</v>
+        <v>-0.03129783772233172</v>
       </c>
       <c r="D92">
-        <v>-0.2887664225871523</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2900152098468463</v>
+      </c>
+      <c r="E92">
+        <v>0.1053444404096418</v>
+      </c>
+      <c r="F92">
+        <v>-0.006376647639403644</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1489779169794309</v>
+        <v>0.1596949377955631</v>
       </c>
       <c r="C93">
-        <v>-0.02920305997636924</v>
+        <v>-0.03551420977954663</v>
       </c>
       <c r="D93">
-        <v>-0.2588552562183882</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2583728978251059</v>
+      </c>
+      <c r="E93">
+        <v>0.07074914263939057</v>
+      </c>
+      <c r="F93">
+        <v>0.01413716742646064</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1308180592428223</v>
+        <v>0.1232398345589589</v>
       </c>
       <c r="C94">
-        <v>-0.03087534474072366</v>
+        <v>-0.02725397286104807</v>
       </c>
       <c r="D94">
-        <v>0.04160952591876232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04562891403332924</v>
+      </c>
+      <c r="E94">
+        <v>-0.06395712345556138</v>
+      </c>
+      <c r="F94">
+        <v>0.02255924276498801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1266047106578469</v>
+        <v>0.1292556313256864</v>
       </c>
       <c r="C95">
-        <v>-0.01297791854780133</v>
+        <v>-0.00743307574658874</v>
       </c>
       <c r="D95">
-        <v>0.08964424879697569</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1007338717704713</v>
+      </c>
+      <c r="E95">
+        <v>-0.06302285584276313</v>
+      </c>
+      <c r="F95">
+        <v>-0.03159752455190146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1538765272845325</v>
+        <v>0.1398207314068783</v>
       </c>
       <c r="C96">
-        <v>0.9822900716458998</v>
+        <v>0.9832600758478158</v>
       </c>
       <c r="D96">
-        <v>-0.0270989650213006</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05465641142236679</v>
+      </c>
+      <c r="E96">
+        <v>-0.05365340498471859</v>
+      </c>
+      <c r="F96">
+        <v>0.04359184545775075</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1889483704661667</v>
+        <v>0.1929219023895419</v>
       </c>
       <c r="C97">
-        <v>-0.001882903751824754</v>
+        <v>-0.000306136488879105</v>
       </c>
       <c r="D97">
-        <v>-0.02257389844617377</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02701643315487114</v>
+      </c>
+      <c r="E97">
+        <v>-0.01703770395987803</v>
+      </c>
+      <c r="F97">
+        <v>-0.181055211887296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1950661971590434</v>
+        <v>0.2010920356502715</v>
       </c>
       <c r="C98">
-        <v>-0.01604834968125717</v>
+        <v>-0.01112789256994092</v>
       </c>
       <c r="D98">
-        <v>0.006628371961498635</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009631949894703493</v>
+      </c>
+      <c r="E98">
+        <v>0.08803794476614449</v>
+      </c>
+      <c r="F98">
+        <v>-0.07318442373290507</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05767683428948563</v>
+        <v>0.05731951740841316</v>
       </c>
       <c r="C99">
-        <v>0.0001829955269815595</v>
+        <v>0.002386368810283303</v>
       </c>
       <c r="D99">
-        <v>0.03890091215766046</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.0438123442690396</v>
+      </c>
+      <c r="E99">
+        <v>-0.02606504800803244</v>
+      </c>
+      <c r="F99">
+        <v>-0.01118625765660657</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1460384114078931</v>
+        <v>0.1348930892371699</v>
       </c>
       <c r="C100">
-        <v>0.03482895473769177</v>
+        <v>0.04627930467781664</v>
       </c>
       <c r="D100">
-        <v>0.3985569838920928</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3613918608638476</v>
+      </c>
+      <c r="E100">
+        <v>0.8937760657753363</v>
+      </c>
+      <c r="F100">
+        <v>-0.01702970973479525</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02551343215544634</v>
+        <v>0.02757268362559602</v>
       </c>
       <c r="C101">
-        <v>-0.009844355964811216</v>
+        <v>-0.009161522293259143</v>
       </c>
       <c r="D101">
-        <v>0.03064402562447833</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03103457028146875</v>
+      </c>
+      <c r="E101">
+        <v>-0.01650878602335339</v>
+      </c>
+      <c r="F101">
+        <v>-0.02756243052177041</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
